--- a/MS/Integrate/From-Tomsk/PhO2SOPh-v1-v5.xlsx
+++ b/MS/Integrate/From-Tomsk/PhO2SOPh-v1-v5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PhO2SOPh-v1-v5" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t xml:space="preserve"> v1</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t xml:space="preserve">C (mg/mL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C(mol/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -121,8 +130,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -203,12 +211,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -314,21 +322,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -435,11 +428,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45459472"/>
-        <c:axId val="46179686"/>
+        <c:axId val="87208515"/>
+        <c:axId val="4609918"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45459472"/>
+        <c:axId val="87208515"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,24 +452,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46179686"/>
+        <c:crossAx val="4609918"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46179686"/>
+        <c:axId val="4609918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,19 +503,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45459472"/>
+        <c:crossAx val="87208515"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -540,20 +541,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -599,21 +586,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -720,11 +692,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38351921"/>
-        <c:axId val="421865"/>
+        <c:axId val="73777438"/>
+        <c:axId val="17422389"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38351921"/>
+        <c:axId val="73777438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,18 +719,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Время, с</a:t>
@@ -767,12 +749,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -788,24 +764,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421865"/>
+        <c:crossAx val="17422389"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421865"/>
+        <c:axId val="17422389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,18 +808,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Концентрация, mg/mL</a:t>
@@ -848,12 +838,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -869,19 +853,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38351921"/>
+        <c:crossAx val="73777438"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -916,13 +904,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>265320</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>114480</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -931,7 +919,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1769400" y="2671920"/>
-        <a:ext cx="5750280" cy="3228480"/>
+        <a:ext cx="5753160" cy="3227400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -946,13 +934,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>135720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>492480</xdr:colOff>
+      <xdr:colOff>491400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -960,8 +948,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9153720" y="3031200"/>
-        <a:ext cx="4518000" cy="2742840"/>
+        <a:off x="9158400" y="3031200"/>
+        <a:ext cx="4517280" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -979,13 +967,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="7.93"/>
@@ -1145,6 +1133,12 @@
       <c r="X2" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="Y2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -1222,8 +1216,16 @@
         <f aca="false">0.000000000001159*W3*W3+0.000000079531408*W3</f>
         <v>0.00104998678292519</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y3" s="0" t="n">
+        <f aca="false">X3/234.2701</f>
+        <v>4.48194960827349E-006</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <f aca="false">Y3*300</f>
+        <v>0.00134458488248205</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>60</v>
       </c>
@@ -1299,8 +1301,16 @@
         <f aca="false">0.000000000001159*W4*W4+0.000000079531408*W4</f>
         <v>0.00498581460992246</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y4" s="0" t="n">
+        <f aca="false">X4/234.2701</f>
+        <v>2.12823344076878E-005</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <f aca="false">Y4*300</f>
+        <v>0.00638470032230634</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>120</v>
       </c>
@@ -1376,8 +1386,16 @@
         <f aca="false">0.000000000001159*W5*W5+0.000000079531408*W5</f>
         <v>0.0109186132136367</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y5" s="0" t="n">
+        <f aca="false">X5/234.2701</f>
+        <v>4.66069430697161E-005</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <f aca="false">Y5*300</f>
+        <v>0.0139820829209148</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>180</v>
       </c>
@@ -1453,8 +1471,16 @@
         <f aca="false">0.000000000001159*W6*W6+0.000000079531408*W6</f>
         <v>0.0187997899465754</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y6" s="0" t="n">
+        <f aca="false">X6/234.2701</f>
+        <v>8.02483541287403E-005</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <f aca="false">Y6*300</f>
+        <v>0.0240745062386221</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>240</v>
       </c>
@@ -1530,8 +1556,16 @@
         <f aca="false">0.000000000001159*W7*W7+0.000000079531408*W7</f>
         <v>0.012233143022283</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y7" s="0" t="n">
+        <f aca="false">X7/234.2701</f>
+        <v>5.22181149975306E-005</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <f aca="false">Y7*300</f>
+        <v>0.0156654344992592</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>360</v>
       </c>
@@ -1607,8 +1641,16 @@
         <f aca="false">0.000000000001159*W8*W8+0.000000079531408*W8</f>
         <v>0.0178778169832179</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y8" s="0" t="n">
+        <f aca="false">X8/234.2701</f>
+        <v>7.63128413878591E-005</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <f aca="false">Y8*300</f>
+        <v>0.0228938524163577</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>420</v>
       </c>
@@ -1684,8 +1726,16 @@
         <f aca="false">0.000000000001159*W9*W9+0.000000079531408*W9</f>
         <v>0.0180696058478504</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y9" s="0" t="n">
+        <f aca="false">X9/234.2701</f>
+        <v>7.71315069565019E-005</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <f aca="false">Y9*300</f>
+        <v>0.0231394520869506</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>480</v>
       </c>
@@ -1761,8 +1811,16 @@
         <f aca="false">0.000000000001159*W10*W10+0.000000079531408*W10</f>
         <v>0.0186273034211784</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y10" s="0" t="n">
+        <f aca="false">X10/234.2701</f>
+        <v>7.95120820846467E-005</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <f aca="false">Y10*300</f>
+        <v>0.023853624625394</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>540</v>
       </c>
@@ -1838,8 +1896,16 @@
         <f aca="false">0.000000000001159*W11*W11+0.000000079531408*W11</f>
         <v>0.0171327150185517</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y11" s="0" t="n">
+        <f aca="false">X11/234.2701</f>
+        <v>7.31323161536692E-005</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <f aca="false">Y11*300</f>
+        <v>0.0219396948461008</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>600</v>
       </c>
@@ -1915,8 +1981,16 @@
         <f aca="false">0.000000000001159*W12*W12+0.000000079531408*W12</f>
         <v>0.016696573308679</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y12" s="0" t="n">
+        <f aca="false">X12/234.2701</f>
+        <v>7.12706116089036E-005</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <f aca="false">Y12*300</f>
+        <v>0.0213811834826711</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>750</v>
       </c>
@@ -1992,8 +2066,16 @@
         <f aca="false">0.000000000001159*W13*W13+0.000000079531408*W13</f>
         <v>0.0153220862164145</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y13" s="0" t="n">
+        <f aca="false">X13/234.2701</f>
+        <v>6.54035073891824E-005</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <f aca="false">Y13*300</f>
+        <v>0.0196210522167547</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>900</v>
       </c>
@@ -2069,8 +2151,16 @@
         <f aca="false">0.000000000001159*W14*W14+0.000000079531408*W14</f>
         <v>0.017302931728142</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y14" s="0" t="n">
+        <f aca="false">X14/234.2701</f>
+        <v>7.38588993138348E-005</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <f aca="false">Y14*300</f>
+        <v>0.0221576697941504</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>1050</v>
       </c>
@@ -2145,6 +2235,14 @@
       <c r="X15" s="0" t="n">
         <f aca="false">0.000000000001159*W15*W15+0.000000079531408*W15</f>
         <v>0.0172885432358486</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <f aca="false">X15/234.2701</f>
+        <v>7.37974809241495E-005</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <f aca="false">Y15*300</f>
+        <v>0.0221392442772449</v>
       </c>
     </row>
   </sheetData>
@@ -2166,11 +2264,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
@@ -2180,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,7 +2286,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.00104998678292519</v>
+        <v>4.48194960827349E-006</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,7 +2294,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.00498581460992246</v>
+        <v>2.12823344076878E-005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,7 +2302,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0109186132136367</v>
+        <v>4.66069430697161E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,7 +2310,7 @@
         <v>180</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.0187997899465754</v>
+        <v>8.02483541287403E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,7 +2318,7 @@
         <v>240</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.012233143022283</v>
+        <v>5.22181149975306E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,7 +2326,7 @@
         <v>360</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.0178778169832179</v>
+        <v>7.63128413878591E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,7 +2334,7 @@
         <v>420</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.0180696058478504</v>
+        <v>7.71315069565019E-005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,7 +2342,7 @@
         <v>480</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.0186273034211784</v>
+        <v>7.95120820846467E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2350,7 @@
         <v>540</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.0171327150185517</v>
+        <v>7.31323161536692E-005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2358,7 @@
         <v>600</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.016696573308679</v>
+        <v>7.12706116089036E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2366,7 @@
         <v>750</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.0153220862164145</v>
+        <v>6.54035073891824E-005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2374,7 @@
         <v>900</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.017302931728142</v>
+        <v>7.38588993138348E-005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,7 +2382,7 @@
         <v>1050</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.0172885432358486</v>
+        <v>7.37974809241495E-005</v>
       </c>
     </row>
   </sheetData>
